--- a/org.xlsx
+++ b/org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Datascience\_ext\constructor-nukes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E38D9C-0E44-4C26-BF77-BA9C843AE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43525D2-A9A3-485D-B79F-7B5B8AFEAA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19FBE62F-CD28-405B-B463-0C36994A9B7B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Github Ressource:</t>
   </si>
@@ -137,15 +137,6 @@
     <t>Get Things up and running (ALL)</t>
   </si>
   <si>
-    <t>Main ()</t>
-  </si>
-  <si>
-    <t>Input / Output ()</t>
-  </si>
-  <si>
-    <t>Data - aggregation ()</t>
-  </si>
-  <si>
     <t>Presentation (All)</t>
   </si>
   <si>
@@ -176,12 +167,6 @@
     <t>Infra</t>
   </si>
   <si>
-    <t>80%+ Datasources / 80%+ Plot Approaches</t>
-  </si>
-  <si>
-    <t>Working NBs/ Connection  / Main template</t>
-  </si>
-  <si>
     <t>Define 1st Subgroups</t>
   </si>
   <si>
@@ -189,6 +174,24 @@
   </si>
   <si>
     <t>Open points/remarks</t>
+  </si>
+  <si>
+    <t>Input / Data Aggregation (inplace)</t>
+  </si>
+  <si>
+    <t>Output / Main (remote)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working NBs/ Connection  </t>
+  </si>
+  <si>
+    <t>80%+ Datasources / 80%+ Plot Approaches/ Main template</t>
+  </si>
+  <si>
+    <t>Output - optimization</t>
+  </si>
+  <si>
+    <t>Meeting Room 1</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,15 +729,18 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,14 +759,16 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -770,16 +778,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="14" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="e">
@@ -788,9 +793,13 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" s="15"/>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -799,18 +808,10 @@
         <v>#NAME?</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="F8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
-      <c r="F9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="10"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,7 +833,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,6 +862,10 @@
         <v>19</v>
       </c>
       <c r="E13" s="15"/>
+      <c r="F13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,7 +928,7 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -969,7 +974,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,7 +1028,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1059,11 +1064,11 @@
         <v>0.375</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
@@ -1079,13 +1084,13 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">

--- a/org.xlsx
+++ b/org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Datascience\_ext\constructor-nukes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43525D2-A9A3-485D-B79F-7B5B8AFEAA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05650B3-FA83-4ED5-9604-A5347AC0C20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19FBE62F-CD28-405B-B463-0C36994A9B7B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Github Ressource:</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Meeting Room 1</t>
+  </si>
+  <si>
+    <t>chat room 1</t>
+  </si>
+  <si>
+    <t>16:40 Review Ansam</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -390,6 +396,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -707,13 +714,13 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="60.7109375" customWidth="1"/>
   </cols>
@@ -744,6 +751,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
@@ -872,7 +882,9 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
